--- a/parameter_files/v4/de_dg_gwq_lower.xlsx
+++ b/parameter_files/v4/de_dg_gwq_lower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{497C6D93-B399-4E40-8368-389B57572BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EB4DC2B-892E-4E8C-B2F8-0EC42DEB64EF}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{497C6D93-B399-4E40-8368-389B57572BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{604636C4-C780-4922-949C-870EDDB83729}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{761CEF3E-82D4-4F85-B34A-FACCDF66C57E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{761CEF3E-82D4-4F85-B34A-FACCDF66C57E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Bureau of Reclamation</t>
-  </si>
-  <si>
-    <t>Legislature</t>
   </si>
   <si>
     <t>Friant Water Authority</t>
@@ -144,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,11 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -312,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,13 +331,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,6 +355,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3735B7B8-2EC8-4104-AD1E-7B2D80AD863D}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,30 +675,30 @@
     <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>23</v>
+      <c r="H1" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -716,7 +709,7 @@
     </row>
     <row r="3" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -727,7 +720,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -738,7 +731,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -749,7 +742,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -760,7 +753,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
@@ -773,7 +766,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="6">
@@ -792,7 +785,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="6">
@@ -865,8 +858,8 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
+      <c r="A15" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -890,7 +883,9 @@
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -901,55 +896,63 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D18" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-0.5</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="D19" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="E19" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="F19" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5">
+        <v>0.5</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -960,58 +963,72 @@
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="E23" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="F23" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="G23" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="H23" s="6">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="H24" s="6">
-        <v>-0.8</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>-0.5</v>
+      </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="6">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="D26" s="6">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="E26" s="6">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="F26" s="6">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1020,52 +1037,33 @@
         <v>12</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="D27" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="E27" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="F27" s="6">
-        <v>-0.8</v>
-      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D28" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="F28" s="6">
+        <v>-0.5</v>
+      </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="D29" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="E29" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="F29" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
